--- a/character_file.xlsx
+++ b/character_file.xlsx
@@ -428,10 +428,10 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>975</v>
+        <v>159</v>
       </c>
       <c r="C1" t="n">
-        <v>0.08445214378518839</v>
+        <v>0.08833333333333333</v>
       </c>
     </row>
     <row r="2">
@@ -441,10 +441,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02425292334343872</v>
+        <v>0.01722222222222222</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475</v>
+        <v>71</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0411433521004764</v>
+        <v>0.03944444444444444</v>
       </c>
     </row>
     <row r="4">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03404071026418363</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230</v>
+        <v>187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1065396275443915</v>
+        <v>0.1038888888888889</v>
       </c>
     </row>
     <row r="6">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01983542659159809</v>
+        <v>0.01833333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02685145084452144</v>
+        <v>0.02833333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>387</v>
+        <v>70</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03352100476396708</v>
+        <v>0.03888888888888889</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>670</v>
+        <v>103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05803378085751407</v>
+        <v>0.05722222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002338674750974448</v>
+        <v>0.002222222222222222</v>
       </c>
     </row>
     <row r="11">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01818969250757904</v>
+        <v>0.01944444444444444</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>716</v>
+        <v>112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06201818969250758</v>
+        <v>0.06222222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02737115634473798</v>
+        <v>0.03055555555555555</v>
       </c>
     </row>
     <row r="14">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>573</v>
+        <v>88</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04963187527067995</v>
+        <v>0.04888888888888889</v>
       </c>
     </row>
     <row r="15">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>753</v>
+        <v>133</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06522304027717626</v>
+        <v>0.07388888888888889</v>
       </c>
     </row>
     <row r="16">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>365</v>
+        <v>64</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03161541792983976</v>
+        <v>0.03555555555555556</v>
       </c>
     </row>
     <row r="17">
@@ -636,10 +636,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002511909917713296</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="18">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>897</v>
+        <v>135</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07769597228237332</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="19">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>668</v>
+        <v>88</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05786054569077523</v>
+        <v>0.04888888888888889</v>
       </c>
     </row>
     <row r="20">
@@ -675,10 +675,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>729</v>
+        <v>130</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06314421827631009</v>
+        <v>0.07222222222222222</v>
       </c>
     </row>
     <row r="21">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466</v>
+        <v>64</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04036379385015158</v>
+        <v>0.03555555555555556</v>
       </c>
     </row>
     <row r="22">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01316587267215245</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="23">
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01680381117366826</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="24">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003204850584668688</v>
+        <v>0.003888888888888889</v>
       </c>
     </row>
     <row r="25">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424</v>
+        <v>61</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03672585534863577</v>
+        <v>0.03388888888888889</v>
       </c>
     </row>
     <row r="26">
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00346470333477696</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
   </sheetData>
